--- a/Docs/tijd_schrijven/Tijdschrijfformulier.xlsx
+++ b/Docs/tijd_schrijven/Tijdschrijfformulier.xlsx
@@ -5,26 +5,26 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Documents\Actual Documents\School\HBO Windesheim ICT\Klas 1\nerdy_gadgets\Docs\tijd_schrijven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\Docs\tijd_schrijven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DBDBAE-9D3F-45A0-9DBB-28438A81FBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9C37F0-1F00-43AE-9A08-D29AA9DBE0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projectlid1" sheetId="7" r:id="rId1"/>
-    <sheet name="Projectlid2" sheetId="8" r:id="rId2"/>
-    <sheet name="Projectlid3" sheetId="9" r:id="rId3"/>
-    <sheet name="Projectlid4" sheetId="10" r:id="rId4"/>
-    <sheet name="Projectlid5" sheetId="11" r:id="rId5"/>
+    <sheet name="Marvin" sheetId="7" r:id="rId1"/>
+    <sheet name="Demi" sheetId="8" r:id="rId2"/>
+    <sheet name="Lucas" sheetId="9" r:id="rId3"/>
+    <sheet name="Luuk" sheetId="10" r:id="rId4"/>
+    <sheet name="Joch" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Projectlid1!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Projectlid2!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Projectlid3!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Projectlid4!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Projectlid5!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Demi!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Joch!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Lucas!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Luuk!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Marvin!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="27">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>Thuis tijdens de les</t>
+  </si>
+  <si>
+    <t>Werken buiten school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werken buiten school </t>
+  </si>
+  <si>
+    <t>thuis werken tijdens en na les</t>
+  </si>
+  <si>
+    <t>Online werken tijdens les</t>
   </si>
 </sst>
 </file>
@@ -566,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +632,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -632,7 +644,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -698,8 +710,17 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2">
         <v>45243</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +749,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +802,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -793,7 +814,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -859,8 +880,17 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2">
         <v>45243</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +919,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +972,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -954,7 +984,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1020,8 +1050,17 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
       <c r="B13" s="2">
         <v>45243</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1049,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1142,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>6</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1115,7 +1154,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>162</v>
+        <v>157.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1181,8 +1220,17 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
       <c r="B13" s="2">
         <v>45243</v>
+      </c>
+      <c r="C13">
+        <v>280</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +1259,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1312,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>10</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1276,7 +1324,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>158</v>
+        <v>157.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1349,7 +1397,7 @@
         <v>45243</v>
       </c>
       <c r="C13">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -1378,6 +1426,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1603,26 +1670,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1640,30 +1714,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/tijd_schrijven/Tijdschrijfformulier.xlsx
+++ b/Docs/tijd_schrijven/Tijdschrijfformulier.xlsx
@@ -5,23 +5,23 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\Docs\tijd_schrijven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9C37F0-1F00-43AE-9A08-D29AA9DBE0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A2235B-8881-47BA-BBDA-32A6151167FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
     <sheet name="Demi" sheetId="8" r:id="rId2"/>
     <sheet name="Lucas" sheetId="9" r:id="rId3"/>
     <sheet name="Luuk" sheetId="10" r:id="rId4"/>
-    <sheet name="Joch" sheetId="11" r:id="rId5"/>
+    <sheet name="Jochem" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Demi!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Joch!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Jochem!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Lucas!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Luuk!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Marvin!$A$1:$D$47</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -113,19 +113,19 @@
     <t>KBS a les</t>
   </si>
   <si>
-    <t>Thuis tijdens de les</t>
-  </si>
-  <si>
     <t>Werken buiten school</t>
   </si>
   <si>
     <t xml:space="preserve">Werken buiten school </t>
   </si>
   <si>
-    <t>thuis werken tijdens en na les</t>
-  </si>
-  <si>
     <t>Online werken tijdens les</t>
+  </si>
+  <si>
+    <t>Functionaliteit winkelwagen</t>
+  </si>
+  <si>
+    <t>Thuis werken tijdens en na les</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>45243</v>
@@ -1060,7 +1060,7 @@
         <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <v>45243</v>
@@ -1230,7 +1230,7 @@
         <v>280</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1256,16 +1256,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>10.666666666666666</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>157.33333333333334</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1372,7 +1372,7 @@
         <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,32 @@
         <v>280</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45244</v>
+      </c>
+      <c r="C14">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1435,16 +1460,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1670,6 +1685,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
@@ -1679,24 +1704,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1714,4 +1721,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/tijd_schrijven/Tijdschrijfformulier.xlsx
+++ b/Docs/tijd_schrijven/Tijdschrijfformulier.xlsx
@@ -5,26 +5,26 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Documents\Actual Documents\School\HBO Windesheim ICT\Klas 1\nerdy_gadgets\Docs\tijd_schrijven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DBDBAE-9D3F-45A0-9DBB-28438A81FBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A2235B-8881-47BA-BBDA-32A6151167FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projectlid1" sheetId="7" r:id="rId1"/>
-    <sheet name="Projectlid2" sheetId="8" r:id="rId2"/>
-    <sheet name="Projectlid3" sheetId="9" r:id="rId3"/>
-    <sheet name="Projectlid4" sheetId="10" r:id="rId4"/>
-    <sheet name="Projectlid5" sheetId="11" r:id="rId5"/>
+    <sheet name="Marvin" sheetId="7" r:id="rId1"/>
+    <sheet name="Demi" sheetId="8" r:id="rId2"/>
+    <sheet name="Lucas" sheetId="9" r:id="rId3"/>
+    <sheet name="Luuk" sheetId="10" r:id="rId4"/>
+    <sheet name="Jochem" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Projectlid1!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Projectlid2!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Projectlid3!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Projectlid4!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Projectlid5!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Demi!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Jochem!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Lucas!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Luuk!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Marvin!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -113,7 +113,19 @@
     <t>KBS a les</t>
   </si>
   <si>
-    <t>Thuis tijdens de les</t>
+    <t>Werken buiten school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werken buiten school </t>
+  </si>
+  <si>
+    <t>Online werken tijdens les</t>
+  </si>
+  <si>
+    <t>Functionaliteit winkelwagen</t>
+  </si>
+  <si>
+    <t>Thuis werken tijdens en na les</t>
   </si>
 </sst>
 </file>
@@ -567,7 +579,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +632,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -632,7 +644,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -698,8 +710,17 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2">
         <v>45243</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +749,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +802,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -793,7 +814,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -859,8 +880,17 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2">
         <v>45243</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +919,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +972,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -954,7 +984,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1020,8 +1050,17 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2">
         <v>45243</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1049,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1142,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>6</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1115,7 +1154,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>162</v>
+        <v>157.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1181,8 +1220,17 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
       <c r="B13" s="2">
         <v>45243</v>
+      </c>
+      <c r="C13">
+        <v>280</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1208,16 +1256,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B13"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
@@ -1264,7 +1312,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1276,7 +1324,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1324,7 +1372,7 @@
         <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1349,10 +1397,35 @@
         <v>45243</v>
       </c>
       <c r="C13">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45244</v>
+      </c>
+      <c r="C14">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1378,6 +1451,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1603,7 +1685,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
@@ -1613,16 +1695,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1642,7 +1723,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1658,12 +1739,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/tijd_schrijven/Tijdschrijfformulier.xlsx
+++ b/Docs/tijd_schrijven/Tijdschrijfformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A2235B-8881-47BA-BBDA-32A6151167FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609FA10C-44C2-4F38-B14E-E71FEAF7A786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="28">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Thuis werken tijdens en na les</t>
+  </si>
+  <si>
+    <t>Functionaliteit afrekenpagina</t>
   </si>
 </sst>
 </file>
@@ -576,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +635,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -644,7 +647,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -720,6 +723,20 @@
         <v>120</v>
       </c>
       <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -746,10 +763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +819,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -814,7 +831,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -890,6 +907,20 @@
         <v>120</v>
       </c>
       <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -916,10 +947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +1003,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -984,7 +1015,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1061,6 +1092,20 @@
       </c>
       <c r="D13" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1086,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1187,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>10.666666666666666</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1154,7 +1199,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>157.33333333333334</v>
+        <v>155.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1231,6 +1276,20 @@
       </c>
       <c r="D13" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1256,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1371,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1324,7 +1383,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1416,7 +1475,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
         <v>45245</v>
@@ -1426,6 +1485,17 @@
       </c>
       <c r="D15" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1460,6 +1530,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1685,16 +1765,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
@@ -1704,6 +1774,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1721,22 +1809,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/tijd_schrijven/Tijdschrijfformulier.xlsx
+++ b/Docs/tijd_schrijven/Tijdschrijfformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Documents\Actual Documents\School\HBO Windesheim ICT\Klas 1\nerdy_gadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609FA10C-44C2-4F38-B14E-E71FEAF7A786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E2A31F-56EE-4F5C-B8F9-05BE66A37182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="29">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Functionaliteit afrekenpagina</t>
+  </si>
+  <si>
+    <t>Fixes voor demo</t>
   </si>
 </sst>
 </file>
@@ -579,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +638,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -647,7 +650,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -737,6 +740,20 @@
         <v>120</v>
       </c>
       <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45246</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -947,10 +964,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1020,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1015,7 +1032,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1105,6 +1122,20 @@
         <v>120</v>
       </c>
       <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45246</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1131,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,6 +1322,9 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1315,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1405,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>18</v>
+        <v>21.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1383,7 +1417,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>150</v>
+        <v>146.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1496,6 +1530,31 @@
       </c>
       <c r="C16">
         <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45246</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45246</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1521,25 +1580,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1765,33 +1805,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1809,4 +1842,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>